--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Gibson.Spring.030521.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Gibson.Spring.030521.xlsx_with_dialog_acts.xlsx
@@ -681,12 +681,12 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1471,12 +1471,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1765,12 +1765,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1807,12 +1807,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2059,12 +2059,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2227,12 +2227,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2269,12 +2269,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2471,12 +2471,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2989,12 +2989,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -3347,12 +3347,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3385,12 +3385,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3503,12 +3503,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3579,12 +3579,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3983,12 +3983,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4147,12 +4147,12 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4979,12 +4979,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6643,12 +6643,12 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
